--- a/Data Visualization Molson and Brewery.xlsx
+++ b/Data Visualization Molson and Brewery.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Semester 3/Strategy and Performance Management/SPM Project Harvard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="180" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E89387F-CFFB-4EFB-A2CF-301D9AB70173}"/>
+  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B3B7D0-E956-4673-9F9F-E92ED73D408F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cum. Brewery 0%" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="16" r:id="rId2"/>
-    <sheet name="Cum. Molson 0%" sheetId="13" r:id="rId3"/>
-    <sheet name="2019 Molson 0%" sheetId="14" r:id="rId4"/>
+    <sheet name="Cum. Molson 0%" sheetId="13" r:id="rId2"/>
+    <sheet name="2019 Molson 0%" sheetId="14" r:id="rId3"/>
+    <sheet name="2019 Rankings" sheetId="17" r:id="rId4"/>
     <sheet name="Brewery 3%" sheetId="10" r:id="rId5"/>
     <sheet name="Cum. Molson 3%" sheetId="15" r:id="rId6"/>
   </sheets>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1256" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="55">
   <si>
     <t>Company Name</t>
   </si>
@@ -250,9 +250,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -318,7 +319,7 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -333,6 +334,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1262,6 +1264,2044 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SDG 1.5 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUDWEISER BREWING CO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CARLSBERG A/S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HEINEKEN NV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019 Rankings'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.15971869133071023</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2028744355214801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.18804906978087799</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14814949032083777</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.39165117696247176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.3639156674648964</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.37979835492639852</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24634466682920378</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.42206536195279082</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.43463739489921721</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.40579672336508116</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9AA9-4F90-8692-DC9A3396E316}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1359778943"/>
+        <c:axId val="732134159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1359778943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732134159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732134159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359778943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SDG 2.1 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUDWEISER BREWING CO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CARLSBERG A/S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HEINEKEN NV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019 Rankings'!$G$2:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.4869717129378417E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12146896551272747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11893232810774365</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3204460813451189E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24121559963237649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25382977269643503</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23927125669410856</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17416644389122421</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26588464547005197</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26143477475293997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.2394894741431465</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-97D7-4082-ADC5-B8F6A00FC444}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1332385247"/>
+        <c:axId val="828364543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1332385247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828364543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="828364543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332385247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SDG 2.2 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-AE56-4105-BA6B-A1D51AF99A46}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUDWEISER BREWING CO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CARLSBERG A/S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HEINEKEN NV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019 Rankings'!$I$2:$I$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9.4824222118750245E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.12140669049306702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.11883969350901695</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.3109060806061744E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.24084307386803525</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25367148436040782</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23903013352835484</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.17402518951192941</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26561680239975199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.26126672364447523</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.23933082266607983</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AE56-4105-BA6B-A1D51AF99A46}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1332385247"/>
+        <c:axId val="828364543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1332385247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828364543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="828364543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332385247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SDG 3.3 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUDWEISER BREWING CO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CARLSBERG A/S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HEINEKEN NV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019 Rankings'!$K$2:$K$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.5319452138028676E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9629322944064217E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9311214031255811E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.3353707725995765E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.9050890812870422E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1561633997465125E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.8831175255915527E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8545137955671703E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3150045389443989E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.2260551729207819E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.8642925270613741E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0943-43F5-A10F-8472FD656772}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1332385247"/>
+        <c:axId val="828364543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1332385247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828364543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="828364543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332385247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SDG 3.4 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUDWEISER BREWING CO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CARLSBERG A/S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HEINEKEN NV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019 Rankings'!$M$2:$M$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>-4.490102542388452E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.2637300372346705E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.8103176679657034E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.9067420924584869E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-2.6236639865739479E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.3488084046678623E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.9992397147015531E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-3.7290500468535846E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-4.4411373771815296E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.592493364525464E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.9492467918441564E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6783-4799-BB61-48E759C0FEED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1359778943"/>
+        <c:axId val="732134159"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1359778943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="732134159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="732134159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1359778943"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-DE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> SDG 6 </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BUDWEISER BREWING CO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>CARLSBERG A/S</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>HEINEKEN NV</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'2019 Rankings'!$O$2:$O$12</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.63731251000203892</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.53775455032644537</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57000663454027656</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.60994931032591193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10734159996338785</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.16341913639729871</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.1368924175204877</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.40975358231507902</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.0839229447556261E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.5814646723814557E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.2358482277576047E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1A79-40A4-B90D-B6776359CAF9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1332385247"/>
+        <c:axId val="828364543"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1332385247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="828364543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="828364543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1332385247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-DE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
       <c:tx>
         <c:rich>
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
@@ -1773,6 +3813,246 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3321,6 +5601,3024 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3404,6 +8702,235 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>464820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C76AF2C-BD2D-5089-27C8-46F072FB2AE7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>26670</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981AC51D-0C7B-966F-6D8A-FB3566C3A70A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BF654F-3CA0-4A74-AA96-13C4F8CAD4F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765ED844-0CA7-4DDD-9863-65F22BCCF9FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>251460</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8561D51-3574-49C3-86DC-E8412461D650}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>140970</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFDB7DC-3FE8-4307-8063-095ADA527449}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3838,7 +9365,7 @@
   <dimension ref="A1:Z101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" activeCellId="1" sqref="A1:B1048576 F1:F1048576"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11914,1104 +17441,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5A7C355-ED2B-4AAA-BD17-D04C861DAD3A}">
-  <dimension ref="A1:C98"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H85" sqref="H85"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2019</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C2" s="11">
-        <v>-0.15946035309255985</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2019</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="11">
-        <v>-7.0196124151552491E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>2019</v>
-      </c>
-      <c r="B4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C4" s="11">
-        <v>-6.5962333964923375E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>2019</v>
-      </c>
-      <c r="B5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="11">
-        <v>-6.4156530329437106E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2019</v>
-      </c>
-      <c r="B6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="11">
-        <v>-3.3887361079148678E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2019</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="11">
-        <v>-2.4145626951808559E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2019</v>
-      </c>
-      <c r="B8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="11">
-        <v>-1.898777707281523E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="11">
-        <v>-1.7950212641086802E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2019</v>
-      </c>
-      <c r="B10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C10" s="11">
-        <v>-1.7098474042632251E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>2019</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="11">
-        <v>-1.6274821981877376E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2019</v>
-      </c>
-      <c r="B12" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="11">
-        <v>-1.5842602937756169E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>2018</v>
-      </c>
-      <c r="B13" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="11">
-        <v>-0.57509599791116095</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>2018</v>
-      </c>
-      <c r="B14" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="11">
-        <v>-0.12537941607448141</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>2018</v>
-      </c>
-      <c r="B15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C15" s="11">
-        <v>-6.0311121993674437E-2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>2018</v>
-      </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16" s="11">
-        <v>-4.4480543352151465E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17" s="11">
-        <v>-4.2375164518231243E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>2018</v>
-      </c>
-      <c r="B18" t="s">
-        <v>42</v>
-      </c>
-      <c r="C18" s="11">
-        <v>-2.76532599672447E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>2018</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="11">
-        <v>-2.0153591844104354E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2018</v>
-      </c>
-      <c r="B20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C20" s="11">
-        <v>-1.9998003455680362E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="11">
-        <v>-1.7492717014488519E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2018</v>
-      </c>
-      <c r="B22" t="s">
-        <v>47</v>
-      </c>
-      <c r="C22" s="11">
-        <v>-1.5360463819552942E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2017</v>
-      </c>
-      <c r="B23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C23" s="11">
-        <v>-0.4983325026552573</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2017</v>
-      </c>
-      <c r="B24" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="11">
-        <v>-0.13982710002285553</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2017</v>
-      </c>
-      <c r="B25" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="11">
-        <v>-5.3127509079985896E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2017</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="11">
-        <v>-4.381103283206339E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2017</v>
-      </c>
-      <c r="B27" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="11">
-        <v>-4.0661677298982575E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2017</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="11">
-        <v>-2.5940106609761204E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2017</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29" s="11">
-        <v>-1.9130327595798895E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2017</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="11">
-        <v>-1.8974907716112689E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="11">
-        <v>-1.8959349623528687E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>2017</v>
-      </c>
-      <c r="B32" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="11">
-        <v>-1.540024303849845E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>2017</v>
-      </c>
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="11">
-        <v>-1.1214072929868155E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>2016</v>
-      </c>
-      <c r="B34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="11">
-        <v>-0.168862439654973</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>2016</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-      <c r="C35" s="11">
-        <v>-4.8059517263424813E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-      <c r="C36" s="11">
-        <v>-3.6870195045304713E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>2016</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="11">
-        <v>-3.174882158857445E-2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>2016</v>
-      </c>
-      <c r="B38" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="11">
-        <v>-2.3814801409782281E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="11">
-        <v>-2.3759521814017977E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>2016</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" s="11">
-        <v>-2.3549836702377515E-2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>2016</v>
-      </c>
-      <c r="B41" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="11">
-        <v>-2.0354394842760328E-2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B42" t="s">
-        <v>49</v>
-      </c>
-      <c r="C42" s="11">
-        <v>-1.7560024292985303E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="5">
-        <v>2016</v>
-      </c>
-      <c r="B43" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="11">
-        <v>-1.4057085162508446E-2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B44" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="11">
-        <v>-4.6925394540199207E-2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B45" t="s">
-        <v>41</v>
-      </c>
-      <c r="C45" s="11">
-        <v>-4.3204020473055181E-2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B46" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="11">
-        <v>-3.8418435964608401E-2</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B47" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="11">
-        <v>-2.9775131301948324E-2</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B48" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="11">
-        <v>-2.0951932599897149E-2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B49" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="11">
-        <v>-2.0015746302101036E-2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B50" t="s">
-        <v>43</v>
-      </c>
-      <c r="C50" s="11">
-        <v>-1.9625001368023302E-2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="5">
-        <v>2015</v>
-      </c>
-      <c r="B51" t="s">
-        <v>45</v>
-      </c>
-      <c r="C51" s="11">
-        <v>-1.9625001368023302E-2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B52" t="s">
-        <v>49</v>
-      </c>
-      <c r="C52" s="11">
-        <v>-1.8703917937373735E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="3">
-        <v>2015</v>
-      </c>
-      <c r="B53" t="s">
-        <v>47</v>
-      </c>
-      <c r="C53" s="11">
-        <v>-1.3250036137713856E-2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B54" t="s">
-        <v>41</v>
-      </c>
-      <c r="C54" s="11">
-        <v>-5.5523576241229888E-2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A55" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B55" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="11">
-        <v>-3.6237658612446981E-2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A56" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B56" t="s">
-        <v>42</v>
-      </c>
-      <c r="C56" s="11">
-        <v>-2.8178956913610147E-2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B57" t="s">
-        <v>44</v>
-      </c>
-      <c r="C57" s="11">
-        <v>-2.540335959564265E-2</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A58" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B58" t="s">
-        <v>45</v>
-      </c>
-      <c r="C58" s="11">
-        <v>-2.2851894306656153E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A59" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B59" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="11">
-        <v>-2.2851870097977879E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B60" t="s">
-        <v>49</v>
-      </c>
-      <c r="C60" s="11">
-        <v>-2.0308436059945589E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B61" t="s">
-        <v>46</v>
-      </c>
-      <c r="C61" s="11">
-        <v>-1.9499666550507194E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="3">
-        <v>2014</v>
-      </c>
-      <c r="B62" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="11">
-        <v>-1.3421496981780802E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B63" t="s">
-        <v>50</v>
-      </c>
-      <c r="C63" s="11">
-        <v>-5.5095697958934507E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B64" t="s">
-        <v>41</v>
-      </c>
-      <c r="C64" s="11">
-        <v>-5.237692631453171E-2</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B65" t="s">
-        <v>39</v>
-      </c>
-      <c r="C65" s="11">
-        <v>-3.9152107289550424E-2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A66" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" s="11">
-        <v>-2.8351983589453403E-2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A67" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B67" t="s">
-        <v>42</v>
-      </c>
-      <c r="C67" s="11">
-        <v>-2.2565369863680167E-2</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C68" s="11">
-        <v>-2.0819486729793342E-2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B69" t="s">
-        <v>45</v>
-      </c>
-      <c r="C69" s="11">
-        <v>-2.079499744171882E-2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A70" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B70" t="s">
-        <v>49</v>
-      </c>
-      <c r="C70" s="11">
-        <v>-1.9933127056627746E-2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B71" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="11">
-        <v>-1.7356092552502388E-2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="3">
-        <v>2013</v>
-      </c>
-      <c r="B72" t="s">
-        <v>46</v>
-      </c>
-      <c r="C72" s="11">
-        <v>-1.69760134558921E-2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A73" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B73" t="s">
-        <v>50</v>
-      </c>
-      <c r="C73" s="11">
-        <v>-5.7879871390328887E-2</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A74" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B74" t="s">
-        <v>41</v>
-      </c>
-      <c r="C74" s="11">
-        <v>-4.3424707001567801E-2</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B75" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="11">
-        <v>-3.5842760012037324E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A76" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B76" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="11">
-        <v>-2.4338687233289736E-2</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A77" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B77" t="s">
-        <v>43</v>
-      </c>
-      <c r="C77" s="11">
-        <v>-2.3767362531367166E-2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A78" s="5">
-        <v>2012</v>
-      </c>
-      <c r="B78" t="s">
-        <v>45</v>
-      </c>
-      <c r="C78" s="11">
-        <v>-2.3264110779216224E-2</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A79" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79" s="11">
-        <v>-1.5126340675444947E-2</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="3">
-        <v>2012</v>
-      </c>
-      <c r="B80" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="11">
-        <v>-1.442620216092072E-2</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A81" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B81" t="s">
-        <v>50</v>
-      </c>
-      <c r="C81" s="11">
-        <v>-8.1432339083250746E-2</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A82" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C82" s="11">
-        <v>-5.1087261871189324E-2</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A83" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B83" t="s">
-        <v>39</v>
-      </c>
-      <c r="C83" s="11">
-        <v>-3.884248795161669E-2</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A84" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B84" t="s">
-        <v>42</v>
-      </c>
-      <c r="C84" s="11">
-        <v>-2.6397974923249301E-2</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A85" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B85" t="s">
-        <v>45</v>
-      </c>
-      <c r="C85" s="11">
-        <v>-2.6031743828527815E-2</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A86" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B86" t="s">
-        <v>43</v>
-      </c>
-      <c r="C86" s="11">
-        <v>-2.5598213781578293E-2</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A87" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B87" t="s">
-        <v>46</v>
-      </c>
-      <c r="C87" s="11">
-        <v>-1.3224877221828238E-2</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A88" s="3">
-        <v>2011</v>
-      </c>
-      <c r="B88" t="s">
-        <v>47</v>
-      </c>
-      <c r="C88" s="11">
-        <v>-1.253945825705125E-2</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A89" s="5">
-        <v>2011</v>
-      </c>
-      <c r="B89" t="s">
-        <v>49</v>
-      </c>
-      <c r="C89" s="11">
-        <v>-1.0659333036412528E-2</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A90" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B90" t="s">
-        <v>50</v>
-      </c>
-      <c r="C90" s="11">
-        <v>-7.5024724464530013E-2</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A91" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B91" t="s">
-        <v>41</v>
-      </c>
-      <c r="C91" s="11">
-        <v>-5.2787354768866805E-2</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A92" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B92" t="s">
-        <v>39</v>
-      </c>
-      <c r="C92" s="11">
-        <v>-4.5484080030190388E-2</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A93" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B93" t="s">
-        <v>43</v>
-      </c>
-      <c r="C93" s="11">
-        <v>-3.0259531224164051E-2</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A94" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B94" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="11">
-        <v>-2.6705259826200988E-2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A95" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B95" t="s">
-        <v>42</v>
-      </c>
-      <c r="C95" s="11">
-        <v>-2.3216836780943544E-2</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A96" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B96" t="s">
-        <v>46</v>
-      </c>
-      <c r="C96" s="11">
-        <v>-1.9709578465139758E-2</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B97" t="s">
-        <v>47</v>
-      </c>
-      <c r="C97" s="11">
-        <v>-1.3088370785621094E-2</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="3">
-        <v>2010</v>
-      </c>
-      <c r="B98" t="s">
-        <v>49</v>
-      </c>
-      <c r="C98" s="11">
-        <v>-1.1799942163953765E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37B9A4F-D01F-4B4C-9672-26F151F231E0}">
   <dimension ref="A1:Z15"/>
   <sheetViews>
@@ -14204,12 +18633,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD8AC204-644A-48B7-ACD5-1553ABE6221E}">
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="D6" sqref="A6:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15683,6 +20112,666 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162EC94-E443-4046-97DC-6A4536B1DA8A}">
+  <dimension ref="A1:O12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="Q15" sqref="Q15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.77734375" customWidth="1"/>
+    <col min="10" max="10" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.77734375" customWidth="1"/>
+    <col min="12" max="12" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.21875" customWidth="1"/>
+    <col min="14" max="14" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2019</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1">
+        <v>-771421190.69552362</v>
+      </c>
+      <c r="D2" s="1">
+        <v>-123210383.0426673</v>
+      </c>
+      <c r="E2" s="14">
+        <f>D2/$C2</f>
+        <v>0.15971869133071023</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-73184510.148892611</v>
+      </c>
+      <c r="G2" s="14">
+        <f>F2/$C2</f>
+        <v>9.4869717129378417E-2</v>
+      </c>
+      <c r="H2" s="1">
+        <v>-73149414.333623126</v>
+      </c>
+      <c r="I2" s="14">
+        <f>H2/$C2</f>
+        <v>9.4824222118750245E-2</v>
+      </c>
+      <c r="J2" s="1">
+        <v>-11817750.009121167</v>
+      </c>
+      <c r="K2" s="14">
+        <f>J2/$C2</f>
+        <v>1.5319452138028676E-2</v>
+      </c>
+      <c r="L2" s="1">
+        <v>3463760.2495942977</v>
+      </c>
+      <c r="M2" s="14">
+        <f>L2/$C2</f>
+        <v>-4.490102542388452E-3</v>
+      </c>
+      <c r="N2" s="1">
+        <v>-491636375.31092566</v>
+      </c>
+      <c r="O2" s="14">
+        <f>N2/$C2</f>
+        <v>0.63731251000203892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2019</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="1">
+        <v>-462095539.79586208</v>
+      </c>
+      <c r="D3" s="1">
+        <v>-93747371.793079168</v>
+      </c>
+      <c r="E3" s="14">
+        <f>D3/$C3</f>
+        <v>0.2028744355214801</v>
+      </c>
+      <c r="F3" s="1">
+        <v>-56130267.187048756</v>
+      </c>
+      <c r="G3" s="14">
+        <f>F3/$C3</f>
+        <v>0.12146896551272747</v>
+      </c>
+      <c r="H3" s="1">
+        <v>-56101490.178222962</v>
+      </c>
+      <c r="I3" s="14">
+        <f>H3/$C3</f>
+        <v>0.12140669049306702</v>
+      </c>
+      <c r="J3" s="1">
+        <v>-9070622.5816646554</v>
+      </c>
+      <c r="K3" s="14">
+        <f>J3/$C3</f>
+        <v>1.9629322944064217E-2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>2894441.7126915106</v>
+      </c>
+      <c r="M3" s="14">
+        <f>L3/$C3</f>
+        <v>-6.2637300372346705E-3</v>
+      </c>
+      <c r="N3" s="1">
+        <v>-248493979.21077985</v>
+      </c>
+      <c r="O3" s="14">
+        <f>N3/$C3</f>
+        <v>0.53775455032644537</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2019</v>
+      </c>
+      <c r="B4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="1">
+        <v>-697841915.94851041</v>
+      </c>
+      <c r="D4" s="1">
+        <v>-131228523.14822303</v>
+      </c>
+      <c r="E4" s="14">
+        <f t="shared" ref="E4:G12" si="0">D4/$C4</f>
+        <v>0.18804906978087799</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-82995963.714924708</v>
+      </c>
+      <c r="G4" s="14">
+        <f t="shared" si="0"/>
+        <v>0.11893232810774365</v>
+      </c>
+      <c r="H4" s="1">
+        <v>-82931319.409066141</v>
+      </c>
+      <c r="I4" s="14">
+        <f t="shared" ref="I4" si="1">H4/$C4</f>
+        <v>0.11883969350901695</v>
+      </c>
+      <c r="J4" s="1">
+        <v>-13476174.598863313</v>
+      </c>
+      <c r="K4" s="14">
+        <f t="shared" ref="K4" si="2">J4/$C4</f>
+        <v>1.9311214031255811E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>12633155.498886257</v>
+      </c>
+      <c r="M4" s="14">
+        <f t="shared" ref="M4:O4" si="3">L4/$C4</f>
+        <v>-1.8103176679657034E-2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-397774521.95094895</v>
+      </c>
+      <c r="O4" s="14">
+        <f t="shared" si="3"/>
+        <v>0.57000663454027656</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2019</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="1">
+        <v>-155514082.23141864</v>
+      </c>
+      <c r="D5" s="1">
+        <v>-23039332.020297524</v>
+      </c>
+      <c r="E5" s="14">
+        <f t="shared" si="0"/>
+        <v>0.14814949032083777</v>
+      </c>
+      <c r="F5" s="1">
+        <v>-12939465.360963898</v>
+      </c>
+      <c r="G5" s="14">
+        <f t="shared" si="0"/>
+        <v>8.3204460813451189E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>-12924629.316369858</v>
+      </c>
+      <c r="I5" s="14">
+        <f t="shared" ref="I5" si="4">H5/$C5</f>
+        <v>8.3109060806061744E-2</v>
+      </c>
+      <c r="J5" s="1">
+        <v>-2076689.6013948356</v>
+      </c>
+      <c r="K5" s="14">
+        <f t="shared" ref="K5" si="5">J5/$C5</f>
+        <v>1.3353707725995765E-2</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-9185815.7548637092</v>
+      </c>
+      <c r="M5" s="14">
+        <f t="shared" ref="M5:O5" si="6">L5/$C5</f>
+        <v>5.9067420924584869E-2</v>
+      </c>
+      <c r="N5" s="1">
+        <v>-94855707.20302096</v>
+      </c>
+      <c r="O5" s="14">
+        <f t="shared" si="6"/>
+        <v>0.60994931032591193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="1">
+        <v>-1778565879.0144079</v>
+      </c>
+      <c r="D6" s="1">
+        <v>-696577419.82128596</v>
+      </c>
+      <c r="E6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.39165117696247176</v>
+      </c>
+      <c r="F6" s="1">
+        <v>-429017834.99214518</v>
+      </c>
+      <c r="G6" s="14">
+        <f t="shared" si="0"/>
+        <v>0.24121559963237649</v>
+      </c>
+      <c r="H6" s="1">
+        <v>-428355273.3786341</v>
+      </c>
+      <c r="I6" s="14">
+        <f t="shared" ref="I6" si="7">H6/$C6</f>
+        <v>0.24084307386803525</v>
+      </c>
+      <c r="J6" s="1">
+        <v>-69454581.944888547</v>
+      </c>
+      <c r="K6" s="14">
+        <f t="shared" ref="K6" si="8">J6/$C6</f>
+        <v>3.9050890812870422E-2</v>
+      </c>
+      <c r="L6" s="1">
+        <v>46663592.445193395</v>
+      </c>
+      <c r="M6" s="14">
+        <f t="shared" ref="M6:O6" si="9">L6/$C6</f>
+        <v>-2.6236639865739479E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>-190914107.09369585</v>
+      </c>
+      <c r="O6" s="14">
+        <f t="shared" si="9"/>
+        <v>0.10734159996338785</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2019</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1">
+        <v>-238814061.85200307</v>
+      </c>
+      <c r="D7" s="1">
+        <v>-86908178.718874753</v>
+      </c>
+      <c r="E7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.3639156674648964</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-60618119.036606319</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="0"/>
+        <v>0.25382977269643503</v>
+      </c>
+      <c r="H7" s="1">
+        <v>-60580317.556135856</v>
+      </c>
+      <c r="I7" s="14">
+        <f t="shared" ref="I7" si="10">H7/$C7</f>
+        <v>0.25367148436040782</v>
+      </c>
+      <c r="J7" s="1">
+        <v>-9925502.6321409494</v>
+      </c>
+      <c r="K7" s="14">
+        <f t="shared" ref="K7" si="11">J7/$C7</f>
+        <v>4.1561633997465125E-2</v>
+      </c>
+      <c r="L7" s="1">
+        <v>19938128.46742874</v>
+      </c>
+      <c r="M7" s="14">
+        <f t="shared" ref="M7:O7" si="12">L7/$C7</f>
+        <v>-8.3488084046678623E-2</v>
+      </c>
+      <c r="N7" s="1">
+        <v>-39026787.74738542</v>
+      </c>
+      <c r="O7" s="14">
+        <f t="shared" si="12"/>
+        <v>0.16341913639729871</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2019</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="1">
+        <v>-510223728.6823892</v>
+      </c>
+      <c r="D8" s="1">
+        <v>-193782132.79798451</v>
+      </c>
+      <c r="E8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.37979835492639852</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-122081872.75698915</v>
+      </c>
+      <c r="G8" s="14">
+        <f t="shared" si="0"/>
+        <v>0.23927125669410856</v>
+      </c>
+      <c r="H8" s="1">
+        <v>-121958845.99628659</v>
+      </c>
+      <c r="I8" s="14">
+        <f t="shared" ref="I8" si="13">H8/$C8</f>
+        <v>0.23903013352835484</v>
+      </c>
+      <c r="J8" s="1">
+        <v>-19812587.02819255</v>
+      </c>
+      <c r="K8" s="14">
+        <f t="shared" ref="K8" si="14">J8/$C8</f>
+        <v>3.8831175255915527E-2</v>
+      </c>
+      <c r="L8" s="1">
+        <v>20405069.991297208</v>
+      </c>
+      <c r="M8" s="14">
+        <f t="shared" ref="M8:O8" si="15">L8/$C8</f>
+        <v>-3.9992397147015531E-2</v>
+      </c>
+      <c r="N8" s="1">
+        <v>-69845759.695649654</v>
+      </c>
+      <c r="O8" s="14">
+        <f t="shared" si="15"/>
+        <v>0.1368924175204877</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2019</v>
+      </c>
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-234873219.14567906</v>
+      </c>
+      <c r="D9" s="1">
+        <v>-57859764.917544872</v>
+      </c>
+      <c r="E9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.24634466682920378</v>
+      </c>
+      <c r="F9" s="1">
+        <v>-40907033.34388712</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="0"/>
+        <v>0.17416644389122421</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-40873856.473103724</v>
+      </c>
+      <c r="I9" s="14">
+        <f t="shared" ref="I9" si="16">H9/$C9</f>
+        <v>0.17402518951192941</v>
+      </c>
+      <c r="J9" s="1">
+        <v>-6704488.4426061213</v>
+      </c>
+      <c r="K9" s="14">
+        <f t="shared" ref="K9" si="17">J9/$C9</f>
+        <v>2.8545137955671703E-2</v>
+      </c>
+      <c r="L9" s="1">
+        <v>8758539.8885984682</v>
+      </c>
+      <c r="M9" s="14">
+        <f t="shared" ref="M9:O9" si="18">L9/$C9</f>
+        <v>-3.7290500468535846E-2</v>
+      </c>
+      <c r="N9" s="1">
+        <v>-96240142.934816599</v>
+      </c>
+      <c r="O9" s="14">
+        <f t="shared" si="18"/>
+        <v>0.40975358231507902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-459455951.44473636</v>
+      </c>
+      <c r="D10" s="1">
+        <v>-193920442.44788653</v>
+      </c>
+      <c r="E10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.42206536195279082</v>
+      </c>
+      <c r="F10" s="1">
+        <v>-122162282.75898914</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0.26588464547005197</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-122039220.66628657</v>
+      </c>
+      <c r="I10" s="14">
+        <f t="shared" ref="I10" si="19">H10/$C10</f>
+        <v>0.26561680239975199</v>
+      </c>
+      <c r="J10" s="1">
+        <v>-19825545.159290548</v>
+      </c>
+      <c r="K10" s="14">
+        <f t="shared" ref="K10" si="20">J10/$C10</f>
+        <v>4.3150045389443989E-2</v>
+      </c>
+      <c r="L10" s="1">
+        <v>20405069.991297208</v>
+      </c>
+      <c r="M10" s="14">
+        <f t="shared" ref="M10:O10" si="21">L10/$C10</f>
+        <v>-4.4411373771815296E-2</v>
+      </c>
+      <c r="N10" s="1">
+        <v>-18763827.022096857</v>
+      </c>
+      <c r="O10" s="14">
+        <f t="shared" si="21"/>
+        <v>4.0839229447556261E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="1">
+        <v>-290984361.36439604</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-126472684.77983353</v>
+      </c>
+      <c r="E11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.43463739489921721</v>
+      </c>
+      <c r="F11" s="1">
+        <v>-76073430.969928965</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="0"/>
+        <v>0.26143477475293997</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-76024530.725455776</v>
+      </c>
+      <c r="I11" s="14">
+        <f t="shared" ref="I11" si="22">H11/$C11</f>
+        <v>0.26126672364447523</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-12297159.65583056</v>
+      </c>
+      <c r="K11" s="14">
+        <f t="shared" ref="K11" si="23">J11/$C11</f>
+        <v>4.2260551729207819E-2</v>
+      </c>
+      <c r="L11" s="1">
+        <v>4633906.6465348052</v>
+      </c>
+      <c r="M11" s="14">
+        <f t="shared" ref="M11:O11" si="24">L11/$C11</f>
+        <v>-1.592493364525464E-2</v>
+      </c>
+      <c r="N11" s="1">
+        <v>-2788056.3786284397</v>
+      </c>
+      <c r="O11" s="14">
+        <f t="shared" si="24"/>
+        <v>9.5814646723814557E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2019</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="1">
+        <v>-304813771.74601644</v>
+      </c>
+      <c r="D12" s="1">
+        <v>-123692429.81108522</v>
+      </c>
+      <c r="E12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.40579672336508116</v>
+      </c>
+      <c r="F12" s="1">
+        <v>-72999689.907042563</v>
+      </c>
+      <c r="G12" s="14">
+        <f t="shared" si="0"/>
+        <v>0.2394894741431465</v>
+      </c>
+      <c r="H12" s="1">
+        <v>-72951330.751924798</v>
+      </c>
+      <c r="I12" s="14">
+        <f t="shared" ref="I12" si="25">H12/$C12</f>
+        <v>0.23933082266607983</v>
+      </c>
+      <c r="J12" s="1">
+        <v>-11778895.803035228</v>
+      </c>
+      <c r="K12" s="14">
+        <f t="shared" ref="K12" si="26">J12/$C12</f>
+        <v>3.8642925270613741E-2</v>
+      </c>
+      <c r="L12" s="1">
+        <v>594157.26668583951</v>
+      </c>
+      <c r="M12" s="14">
+        <f t="shared" ref="M12:O12" si="27">L12/$C12</f>
+        <v>-1.9492467918441564E-3</v>
+      </c>
+      <c r="N12" s="1">
+        <v>-22055861.900845241</v>
+      </c>
+      <c r="O12" s="14">
+        <f t="shared" si="27"/>
+        <v>7.2358482277576047E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B349C285-18DB-4734-AA63-E0F903BF548B}">
   <dimension ref="A1:Z101"/>
@@ -24956,6 +30045,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101002645C3B902415B4A832A38E2D536BCBF" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="7f46c813ed8eba6d99d2d6607137ae0a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="53749597-08b2-480a-9987-8dc99663f934" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4a6305a350d626ca94428547b882ca6a" ns2:_="">
     <xsd:import namespace="53749597-08b2-480a-9987-8dc99663f934"/>
@@ -25125,22 +30229,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{610FB421-9E96-4F73-97F1-36D9CECE9EF8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -25156,21 +30262,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Data Visualization Molson and Brewery.xlsx
+++ b/Data Visualization Molson and Brewery.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6e65643cfa874844/01 Frankfurt School/Semester 3/Strategy and Performance Management/SPM Project Harvard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="235" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36B3B7D0-E956-4673-9F9F-E92ED73D408F}"/>
+  <xr:revisionPtr revIDLastSave="278" documentId="13_ncr:1_{86850387-C610-473E-9356-8EF4DE386ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2D651A0-FBD6-4A0D-8C60-6E7C52A9BC2D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'2019 Rankings'!$A$45:$C$56</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Brewery 3%'!$A$1:$Z$98</definedName>
     <definedName name="Discount_Rate">'[1]Generalized Entry Sheet'!$E$6</definedName>
     <definedName name="IQ_CH">110000</definedName>
@@ -79,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1182" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1266" uniqueCount="55">
   <si>
     <t>Company Name</t>
   </si>
@@ -1305,7 +1306,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019 Rankings'!$E$1</c:f>
+              <c:f>'2019 Rankings'!$C$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1324,25 +1325,47 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DEB8-4707-BE59-639E5B4CF800}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:f>'2019 Rankings'!$B$17:$B$27</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BUDWEISER BREWING CO</c:v>
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>MOLSON COORS BEVERAGE CO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                  <c:v>BUDWEISER BREWING CO</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                  <c:v>AMBEV SA</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>CARLSBERG A/S</c:v>
@@ -1351,40 +1374,40 @@
                   <c:v>HEINEKEN HOLDING NV</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMBEV SA</c:v>
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>HEINEKEN NV</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>KIRIN HOLDINGS CO LTD</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2019 Rankings'!$E$2:$E$12</c:f>
+              <c:f>'2019 Rankings'!$C$17:$C$27</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.15971869133071023</c:v>
+                  <c:v>0.14814949032083777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2028744355214801</c:v>
+                  <c:v>0.15971869133071023</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.18804906978087799</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.14814949032083777</c:v>
+                  <c:v>0.2028744355214801</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.39165117696247176</c:v>
+                  <c:v>0.24634466682920378</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.3639156674648964</c:v>
@@ -1393,23 +1416,23 @@
                   <c:v>0.37979835492639852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.24634466682920378</c:v>
+                  <c:v>0.39165117696247176</c:v>
                 </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.40579672336508116</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.42206536195279082</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.43463739489921721</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.40579672336508116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-9AA9-4F90-8692-DC9A3396E316}"/>
+              <c16:uniqueId val="{00000000-DEB8-4707-BE59-639E5B4CF800}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1423,11 +1446,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1359778943"/>
-        <c:axId val="732134159"/>
+        <c:axId val="798631456"/>
+        <c:axId val="811964320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1359778943"/>
+        <c:axId val="798631456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1470,7 +1493,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732134159"/>
+        <c:crossAx val="811964320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1478,7 +1501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="732134159"/>
+        <c:axId val="811964320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1529,7 +1552,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359778943"/>
+        <c:crossAx val="798631456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1641,7 +1664,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019 Rankings'!$G$1</c:f>
+              <c:f>'2019 Rankings'!$C$31</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1660,92 +1683,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-EEFA-404B-8A49-E53FE079ABFB}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:f>'2019 Rankings'!$B$32:$B$42</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BUDWEISER BREWING CO</c:v>
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>MOLSON COORS BEVERAGE CO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                  <c:v>BUDWEISER BREWING CO</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>ANHEUSER-BUSCH INBEV</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>CARLSBERG A/S</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HEINEKEN HOLDING NV</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AMBEV SA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>KIRIN HOLDINGS CO LTD</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2019 Rankings'!$G$2:$G$12</c:f>
+              <c:f>'2019 Rankings'!$C$32:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.4869717129378417E-2</c:v>
+                  <c:v>8.3204460813451189E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12146896551272747</c:v>
+                  <c:v>9.4869717129378417E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.11893232810774365</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3204460813451189E-2</c:v>
+                  <c:v>0.12146896551272747</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.17416644389122421</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23927125669410856</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.2394894741431465</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.24121559963237649</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.25382977269643503</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23927125669410856</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17416644389122421</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26588464547005197</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.26143477475293997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.2394894741431465</c:v>
+                  <c:v>0.26588464547005197</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-97D7-4082-ADC5-B8F6A00FC444}"/>
+              <c16:uniqueId val="{00000000-EEFA-404B-8A49-E53FE079ABFB}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1759,11 +1804,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1332385247"/>
-        <c:axId val="828364543"/>
+        <c:axId val="816209152"/>
+        <c:axId val="488165936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1332385247"/>
+        <c:axId val="816209152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1806,7 +1851,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828364543"/>
+        <c:crossAx val="488165936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1814,7 +1859,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="828364543"/>
+        <c:axId val="488165936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1865,7 +1910,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1332385247"/>
+        <c:crossAx val="816209152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1977,7 +2022,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019 Rankings'!$I$1</c:f>
+              <c:f>'2019 Rankings'!$C$45</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2003,8 +2048,8 @@
             <c:spPr>
               <a:solidFill>
                 <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln>
@@ -2014,96 +2059,96 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-AE56-4105-BA6B-A1D51AF99A46}"/>
+                <c16:uniqueId val="{00000001-8F1E-4A37-89F2-353DDFBD866B}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:f>'2019 Rankings'!$B$46:$B$56</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BUDWEISER BREWING CO</c:v>
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>MOLSON COORS BEVERAGE CO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                  <c:v>BUDWEISER BREWING CO</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>AMBEV SA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>HEINEKEN HOLDING NV</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>ANHEUSER-BUSCH INBEV</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>CARLSBERG A/S</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>HEINEKEN HOLDING NV</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>AMBEV SA</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>KIRIN HOLDINGS CO LTD</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2019 Rankings'!$I$2:$I$12</c:f>
+              <c:f>'2019 Rankings'!$C$46:$C$56</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>9.4824222118750245E-2</c:v>
+                  <c:v>8.3109060806061744E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.12140669049306702</c:v>
+                  <c:v>9.4824222118750245E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.11883969350901695</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.3109060806061744E-2</c:v>
+                  <c:v>0.12140669049306702</c:v>
                 </c:pt>
                 <c:pt idx="4">
+                  <c:v>0.17402518951192941</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.23903013352835484</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23933082266607983</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.24084307386803525</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="8">
                   <c:v>0.25367148436040782</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23903013352835484</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.17402518951192941</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.26561680239975199</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.26126672364447523</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.23933082266607983</c:v>
+                  <c:v>0.26561680239975199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-AE56-4105-BA6B-A1D51AF99A46}"/>
+              <c16:uniqueId val="{00000000-8F1E-4A37-89F2-353DDFBD866B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2117,11 +2162,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1332385247"/>
-        <c:axId val="828364543"/>
+        <c:axId val="816185952"/>
+        <c:axId val="818934032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1332385247"/>
+        <c:axId val="816185952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,7 +2209,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828364543"/>
+        <c:crossAx val="818934032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2172,7 +2217,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="828364543"/>
+        <c:axId val="818934032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2223,7 +2268,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1332385247"/>
+        <c:crossAx val="816185952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2335,7 +2380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019 Rankings'!$K$1</c:f>
+              <c:f>'2019 Rankings'!$C$59</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2354,92 +2399,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-2010-47A2-BF13-A10D270E48D2}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:f>'2019 Rankings'!$B$60:$B$70</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BUDWEISER BREWING CO</c:v>
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>MOLSON COORS BEVERAGE CO</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                  <c:v>BUDWEISER BREWING CO</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                  <c:v>AMBEV SA</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>CARLSBERG A/S</c:v>
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>HEINEKEN HOLDING NV</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMBEV SA</c:v>
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HEINEKEN NV</c:v>
+                  <c:v>CARLSBERG A/S</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>KIRIN HOLDINGS CO LTD</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2019 Rankings'!$K$2:$K$12</c:f>
+              <c:f>'2019 Rankings'!$C$60:$C$70</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>1.5319452138028676E-2</c:v>
+                  <c:v>1.3353707725995765E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.9629322944064217E-2</c:v>
+                  <c:v>1.5319452138028676E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1.9311214031255811E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3353707725995765E-2</c:v>
+                  <c:v>1.9629322944064217E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.9050890812870422E-2</c:v>
+                  <c:v>2.8545137955671703E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.1561633997465125E-2</c:v>
+                  <c:v>3.8642925270613741E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>3.8831175255915527E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.8545137955671703E-2</c:v>
+                  <c:v>3.9050890812870422E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.3150045389443989E-2</c:v>
+                  <c:v>4.1561633997465125E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4.2260551729207819E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>3.8642925270613741E-2</c:v>
+                  <c:v>4.3150045389443989E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0943-43F5-A10F-8472FD656772}"/>
+              <c16:uniqueId val="{00000000-2010-47A2-BF13-A10D270E48D2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2453,11 +2520,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1332385247"/>
-        <c:axId val="828364543"/>
+        <c:axId val="816259728"/>
+        <c:axId val="878146496"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1332385247"/>
+        <c:axId val="816259728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2500,7 +2567,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828364543"/>
+        <c:crossAx val="878146496"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2508,7 +2575,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="828364543"/>
+        <c:axId val="878146496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2559,7 +2626,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1332385247"/>
+        <c:crossAx val="816259728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2671,7 +2738,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019 Rankings'!$M$1</c:f>
+              <c:f>'2019 Rankings'!$C$73</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2690,92 +2757,114 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-25D0-4114-A2B8-14CCDEB13E1F}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:f>'2019 Rankings'!$B$74:$B$84</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                  <c:v>CARLSBERG A/S</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BUDWEISER BREWING CO</c:v>
+                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                  <c:v>HEINEKEN HOLDING NV</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                  <c:v>AMBEV SA</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>ANHEUSER-BUSCH INBEV</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>CARLSBERG A/S</c:v>
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HEINEKEN HOLDING NV</c:v>
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMBEV SA</c:v>
+                  <c:v>BUDWEISER BREWING CO</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HEINEKEN NV</c:v>
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2019 Rankings'!$M$2:$M$12</c:f>
+              <c:f>'2019 Rankings'!$C$74:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>-4.490102542388452E-3</c:v>
+                  <c:v>-8.3488084046678623E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.2637300372346705E-3</c:v>
+                  <c:v>-4.4411373771815296E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.8103176679657034E-2</c:v>
+                  <c:v>-3.9992397147015531E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.9067420924584869E-2</c:v>
+                  <c:v>-3.7290500468535846E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>-2.6236639865739479E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-8.3488084046678623E-2</c:v>
+                  <c:v>-1.8103176679657034E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-3.9992397147015531E-2</c:v>
+                  <c:v>-1.592493364525464E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-3.7290500468535846E-2</c:v>
+                  <c:v>-6.2637300372346705E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-4.4411373771815296E-2</c:v>
+                  <c:v>-4.490102542388452E-3</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-1.592493364525464E-2</c:v>
+                  <c:v>-1.9492467918441564E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-1.9492467918441564E-3</c:v>
+                  <c:v>5.9067420924584869E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6783-4799-BB61-48E759C0FEED}"/>
+              <c16:uniqueId val="{00000000-25D0-4114-A2B8-14CCDEB13E1F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2789,11 +2878,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1359778943"/>
-        <c:axId val="732134159"/>
+        <c:axId val="824106368"/>
+        <c:axId val="798207136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1359778943"/>
+        <c:axId val="824106368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2836,7 +2925,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="732134159"/>
+        <c:crossAx val="798207136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2844,7 +2933,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="732134159"/>
+        <c:axId val="798207136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2984,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1359778943"/>
+        <c:crossAx val="824106368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3007,7 +3096,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2019 Rankings'!$O$1</c:f>
+              <c:f>'2019 Rankings'!$C$87</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3018,7 +3107,7 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="accent1"/>
+              <a:schemeClr val="accent2"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -3026,92 +3115,111 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DFB0-48F8-8A59-C99043957970}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'2019 Rankings'!$B$2:$B$12</c:f>
+              <c:f>'2019 Rankings'!$B$88:$B$98</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
+                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>BUDWEISER BREWING CO</c:v>
+                  <c:v>HEINEKEN NV</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
+                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
+                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>ANHEUSER-BUSCH INBEV</c:v>
+                  <c:v>HEINEKEN HOLDING NV</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>CARLSBERG A/S</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>HEINEKEN HOLDING NV</c:v>
+                  <c:v>AMBEV SA</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>AMBEV SA</c:v>
+                  <c:v>BUDWEISER BREWING CO</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>HEINEKEN NV</c:v>
+                  <c:v>MOLSON COORS BEVERAGE CO</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>KIRIN HOLDINGS CO LTD</c:v>
+                  <c:v>COMPANIA CERVECERIAS UNIDAS</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>ASAHI GROUP HOLDINGS LTD</c:v>
+                  <c:v>CHINA RESOURCES BEER (HLDGS)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2019 Rankings'!$O$2:$O$12</c:f>
+              <c:f>'2019 Rankings'!$C$88:$C$98</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.63731251000203892</c:v>
+                  <c:v>9.5814646723814557E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.53775455032644537</c:v>
+                  <c:v>4.0839229447556261E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.57000663454027656</c:v>
+                  <c:v>7.2358482277576047E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.60994931032591193</c:v>
+                  <c:v>0.10734159996338785</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10734159996338785</c:v>
+                  <c:v>0.1368924175204877</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.16341913639729871</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.1368924175204877</c:v>
+                  <c:v>0.40975358231507902</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40975358231507902</c:v>
+                  <c:v>0.53775455032644537</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.0839229447556261E-2</c:v>
+                  <c:v>0.57000663454027656</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9.5814646723814557E-3</c:v>
+                  <c:v>0.60994931032591193</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.2358482277576047E-2</c:v>
+                  <c:v>0.63731251000203892</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-1A79-40A4-B90D-B6776359CAF9}"/>
+              <c16:uniqueId val="{00000000-DFB0-48F8-8A59-C99043957970}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3125,11 +3233,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1332385247"/>
-        <c:axId val="828364543"/>
+        <c:axId val="603167328"/>
+        <c:axId val="819163936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1332385247"/>
+        <c:axId val="603167328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3172,7 +3280,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="828364543"/>
+        <c:crossAx val="819163936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3180,7 +3288,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="828364543"/>
+        <c:axId val="819163936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3231,7 +3339,7 @@
             <a:endParaRPr lang="en-DE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1332385247"/>
+        <c:crossAx val="603167328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8705,23 +8813,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>510540</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C76AF2C-BD2D-5089-27C8-46F072FB2AE7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BAF2200-0BC9-7E74-DA3F-464D83CA7C85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8741,23 +8849,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>632460</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="10" name="Chart 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{981AC51D-0C7B-966F-6D8A-FB3566C3A70A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA5A81D-2FC3-88D5-BD67-3FB9EC858D05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8777,29 +8885,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>22860</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
+        <xdr:cNvPr id="11" name="Chart 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29BF654F-3CA0-4A74-AA96-13C4F8CAD4F9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B40DE1A9-77A1-2FF5-6884-244367E0DC0D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8815,29 +8921,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>125730</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="12" name="Chart 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765ED844-0CA7-4DDD-9863-65F22BCCF9FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FFF88C1-3DA8-D88F-31D0-DB677C08621E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8853,29 +8957,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>251460</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>487680</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6">
+        <xdr:cNvPr id="13" name="Chart 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8561D51-3574-49C3-86DC-E8412461D650}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF720D8-6C78-0BDE-B60C-588DC8FF1972}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8891,29 +8993,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>419100</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>110490</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7">
+        <xdr:cNvPr id="14" name="Chart 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEFDB7DC-3FE8-4307-8063-095ADA527449}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1383A599-1A03-D28B-CF23-C7C6B64E5D04}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -20114,10 +20214,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A162EC94-E443-4046-97DC-6A4536B1DA8A}">
-  <dimension ref="A1:O12"/>
+  <dimension ref="A1:O98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20766,7 +20866,802 @@
         <v>7.2358482277576047E-2</v>
       </c>
     </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>2019</v>
+      </c>
+      <c r="B17" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="14">
+        <v>0.14814949032083777</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="14">
+        <v>0.15971869133071023</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>2019</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="14">
+        <v>0.18804906978087799</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="14">
+        <v>0.2028744355214801</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2019</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0.24634466682920378</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0.3639156674648964</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2019</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="14">
+        <v>0.37979835492639852</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="14">
+        <v>0.39165117696247176</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2019</v>
+      </c>
+      <c r="B25" t="s">
+        <v>47</v>
+      </c>
+      <c r="C25" s="14">
+        <v>0.40579672336508116</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26" t="s">
+        <v>45</v>
+      </c>
+      <c r="C26" s="14">
+        <v>0.42206536195279082</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2019</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="14">
+        <v>0.43463739489921721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2019</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="14">
+        <v>8.3204460813451189E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2019</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" s="14">
+        <v>9.4869717129378417E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2019</v>
+      </c>
+      <c r="B34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="14">
+        <v>0.11893232810774365</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>2019</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="14">
+        <v>0.12146896551272747</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2019</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="14">
+        <v>0.17416644389122421</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2019</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37" s="14">
+        <v>0.23927125669410856</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2019</v>
+      </c>
+      <c r="B38" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="14">
+        <v>0.2394894741431465</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2019</v>
+      </c>
+      <c r="B39" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="14">
+        <v>0.24121559963237649</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2019</v>
+      </c>
+      <c r="B40" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="14">
+        <v>0.25382977269643503</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="14">
+        <v>0.26143477475293997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2019</v>
+      </c>
+      <c r="B42" t="s">
+        <v>45</v>
+      </c>
+      <c r="C42" s="14">
+        <v>0.26588464547005197</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2019</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46" s="14">
+        <v>8.3109060806061744E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2019</v>
+      </c>
+      <c r="B47" t="s">
+        <v>36</v>
+      </c>
+      <c r="C47" s="14">
+        <v>9.4824222118750245E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>39</v>
+      </c>
+      <c r="C48" s="14">
+        <v>0.11883969350901695</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2019</v>
+      </c>
+      <c r="B49" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="14">
+        <v>0.12140669049306702</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>2019</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" s="14">
+        <v>0.17402518951192941</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51" s="14">
+        <v>0.23903013352835484</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2019</v>
+      </c>
+      <c r="B52" t="s">
+        <v>47</v>
+      </c>
+      <c r="C52" s="14">
+        <v>0.23933082266607983</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2019</v>
+      </c>
+      <c r="B53" t="s">
+        <v>41</v>
+      </c>
+      <c r="C53" s="14">
+        <v>0.24084307386803525</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2019</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" s="14">
+        <v>0.25367148436040782</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2019</v>
+      </c>
+      <c r="B55" t="s">
+        <v>46</v>
+      </c>
+      <c r="C55" s="14">
+        <v>0.26126672364447523</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2019</v>
+      </c>
+      <c r="B56" t="s">
+        <v>45</v>
+      </c>
+      <c r="C56" s="14">
+        <v>0.26561680239975199</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2019</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60" s="14">
+        <v>1.3353707725995765E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2019</v>
+      </c>
+      <c r="B61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C61" s="14">
+        <v>1.5319452138028676E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>2019</v>
+      </c>
+      <c r="B62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C62" s="14">
+        <v>1.9311214031255811E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63" t="s">
+        <v>38</v>
+      </c>
+      <c r="C63" s="14">
+        <v>1.9629322944064217E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2019</v>
+      </c>
+      <c r="B64" t="s">
+        <v>44</v>
+      </c>
+      <c r="C64" s="14">
+        <v>2.8545137955671703E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>2019</v>
+      </c>
+      <c r="B65" t="s">
+        <v>47</v>
+      </c>
+      <c r="C65" s="14">
+        <v>3.8642925270613741E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2019</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66" s="14">
+        <v>3.8831175255915527E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2019</v>
+      </c>
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C67" s="14">
+        <v>3.9050890812870422E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2019</v>
+      </c>
+      <c r="B68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C68" s="14">
+        <v>4.1561633997465125E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2019</v>
+      </c>
+      <c r="B69" t="s">
+        <v>46</v>
+      </c>
+      <c r="C69" s="14">
+        <v>4.2260551729207819E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2019</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70" s="14">
+        <v>4.3150045389443989E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C73" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2019</v>
+      </c>
+      <c r="B74" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="14">
+        <v>-8.3488084046678623E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2019</v>
+      </c>
+      <c r="B75" t="s">
+        <v>45</v>
+      </c>
+      <c r="C75" s="14">
+        <v>-4.4411373771815296E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2019</v>
+      </c>
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="C76" s="14">
+        <v>-3.9992397147015531E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>2019</v>
+      </c>
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="14">
+        <v>-3.7290500468535846E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>2019</v>
+      </c>
+      <c r="B78" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="14">
+        <v>-2.6236639865739479E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>2019</v>
+      </c>
+      <c r="B79" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="14">
+        <v>-1.8103176679657034E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>2019</v>
+      </c>
+      <c r="B80" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="14">
+        <v>-1.592493364525464E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>2019</v>
+      </c>
+      <c r="B81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C81" s="14">
+        <v>-6.2637300372346705E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>2019</v>
+      </c>
+      <c r="B82" t="s">
+        <v>36</v>
+      </c>
+      <c r="C82" s="14">
+        <v>-4.490102542388452E-3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>2019</v>
+      </c>
+      <c r="B83" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="14">
+        <v>-1.9492467918441564E-3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>2019</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84" s="14">
+        <v>5.9067420924584869E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C87" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>2019</v>
+      </c>
+      <c r="B88" t="s">
+        <v>46</v>
+      </c>
+      <c r="C88" s="14">
+        <v>9.5814646723814557E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89">
+        <v>2019</v>
+      </c>
+      <c r="B89" t="s">
+        <v>45</v>
+      </c>
+      <c r="C89" s="14">
+        <v>4.0839229447556261E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90">
+        <v>2019</v>
+      </c>
+      <c r="B90" t="s">
+        <v>47</v>
+      </c>
+      <c r="C90" s="14">
+        <v>7.2358482277576047E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91">
+        <v>2019</v>
+      </c>
+      <c r="B91" t="s">
+        <v>41</v>
+      </c>
+      <c r="C91" s="14">
+        <v>0.10734159996338785</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92">
+        <v>2019</v>
+      </c>
+      <c r="B92" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="14">
+        <v>0.1368924175204877</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93">
+        <v>2019</v>
+      </c>
+      <c r="B93" t="s">
+        <v>42</v>
+      </c>
+      <c r="C93" s="14">
+        <v>0.16341913639729871</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94">
+        <v>2019</v>
+      </c>
+      <c r="B94" t="s">
+        <v>44</v>
+      </c>
+      <c r="C94" s="14">
+        <v>0.40975358231507902</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95">
+        <v>2019</v>
+      </c>
+      <c r="B95" t="s">
+        <v>38</v>
+      </c>
+      <c r="C95" s="14">
+        <v>0.53775455032644537</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96">
+        <v>2019</v>
+      </c>
+      <c r="B96" t="s">
+        <v>39</v>
+      </c>
+      <c r="C96" s="14">
+        <v>0.57000663454027656</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97">
+        <v>2019</v>
+      </c>
+      <c r="B97" t="s">
+        <v>40</v>
+      </c>
+      <c r="C97" s="14">
+        <v>0.60994931032591193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98">
+        <v>2019</v>
+      </c>
+      <c r="B98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C98" s="14">
+        <v>0.63731251000203892</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A88:C98">
+    <sortCondition ref="C87:C98"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -30045,18 +30940,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30230,18 +31125,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FBAFBAF-5AA5-4A09-9766-5B2E6A7C7A49}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28544A90-A9E1-4D3E-9A7C-46C02AE71BE1}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
